--- a/Creativity/janeiro_2020.xlsx
+++ b/Creativity/janeiro_2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DheyEs\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DheyEs\Documents\useful-things\Creativity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E8F4AC-9B85-4FD7-BDCB-E472FF467C1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E898749-2ECB-4165-9814-7C66F7B0825D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="4" xr2:uid="{325936D5-3719-4057-A4FE-C83347DE4EDB}"/>
   </bookViews>
@@ -27,7 +27,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,10 +41,19 @@
   <commentList>
     <comment ref="C4" authorId="0" shapeId="0" xr:uid="{D89BE80C-9FEE-4EDC-ACEA-AEC358372E36}">
       <text>
-        <t>[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     viagem de uber a ser reembolsada pela hepta</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -53,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>notebook</t>
   </si>
@@ -291,17 +299,44 @@
     <t>DÍVIDAS</t>
   </si>
   <si>
-    <t>cadeira + monitor</t>
-  </si>
-  <si>
-    <t>hipotético do fábio</t>
+    <t>cheque especial</t>
+  </si>
+  <si>
+    <t>papis</t>
+  </si>
+  <si>
+    <t>RESTO</t>
+  </si>
+  <si>
+    <t>uber eats 1</t>
+  </si>
+  <si>
+    <t>uber eats 2</t>
+  </si>
+  <si>
+    <t>uber eats 3</t>
+  </si>
+  <si>
+    <t>uber eats 4</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>mercado livre</t>
+  </si>
+  <si>
+    <t>mamis</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +406,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -516,6 +557,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,16 +579,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,20 +1089,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -1184,14 +1225,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="E2" s="19" t="s">
+      <c r="C2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -1279,10 +1320,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="10" t="s">
         <v>45</v>
       </c>
@@ -1324,22 +1365,22 @@
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:11" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -1380,9 +1421,9 @@
       <c r="G17" s="4">
         <v>560</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
@@ -1525,17 +1566,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="22"/>
-    <col min="7" max="7" width="55.7109375" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="6" width="9.140625" style="16"/>
+    <col min="7" max="7" width="55.7109375" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="26"/>
+      <c r="F3" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1546,7 +1587,7 @@
       <c r="D4" s="4">
         <v>500</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="18">
         <v>2669</v>
       </c>
     </row>
@@ -1630,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAD5AD6-8F28-41A7-9DC2-5F87A0F0F4EC}">
-  <dimension ref="C4:F17"/>
+  <dimension ref="C4:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,32 +1685,29 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="12">
-        <v>500</v>
-      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="F5" s="7">
-        <v>2669</v>
+        <v>3319.47</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D6" s="4">
-        <v>560</v>
+        <f>49.69+347.72</f>
+        <v>397.41</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
@@ -1677,7 +1715,8 @@
         <v>9</v>
       </c>
       <c r="D7" s="4">
-        <v>230</v>
+        <f>255.54-25.55</f>
+        <v>229.98999999999998</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
@@ -1685,63 +1724,107 @@
         <v>3</v>
       </c>
       <c r="D8" s="4">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="4">
-        <v>552.4</v>
+        <v>1604.21</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D10" s="4">
-        <f>2669-D5-D6-D7-D8-D9</f>
-        <v>744.6</v>
+        <f>D17+D18+D19+D20+D21+D22</f>
+        <v>412.99</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="7">
+        <f>D6+D7+D8+D9+D10</f>
+        <v>2731.6000000000004</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4">
-        <v>675</v>
+        <f>F5-D11</f>
+        <v>587.86999999999944</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="4">
-        <f>D10-D13</f>
-        <v>69.600000000000023</v>
-      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="27">
-        <v>200</v>
-      </c>
+      <c r="C16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="27">
-        <v>269</v>
+      <c r="C17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="19">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="7">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7">
+        <v>29.39</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="7">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="7">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C4:D4"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Creativity/janeiro_2020.xlsx
+++ b/Creativity/janeiro_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DheyEs\Documents\useful-things\Creativity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E898749-2ECB-4165-9814-7C66F7B0825D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7B399F-A0CB-4B8D-8447-C53637A90464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="4" xr2:uid="{325936D5-3719-4057-A4FE-C83347DE4EDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="6" xr2:uid="{325936D5-3719-4057-A4FE-C83347DE4EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro-fevereiro" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="março-abril" sheetId="3" r:id="rId3"/>
     <sheet name="maio" sheetId="4" r:id="rId4"/>
     <sheet name="junho" sheetId="5" r:id="rId5"/>
+    <sheet name="setembro" sheetId="6" r:id="rId6"/>
+    <sheet name="outubro" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -61,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
   <si>
     <t>notebook</t>
   </si>
@@ -330,6 +333,45 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>mom ainda nesse mês</t>
+  </si>
+  <si>
+    <t>mom mês que vem</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net </t>
+  </si>
+  <si>
+    <t>condominio</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>luz</t>
+  </si>
+  <si>
+    <t>casa</t>
+  </si>
+  <si>
+    <t>dad pc + celular</t>
+  </si>
+  <si>
+    <t>tim</t>
+  </si>
+  <si>
+    <t>meu cartao1</t>
+  </si>
+  <si>
+    <t>meu cartao2</t>
+  </si>
+  <si>
+    <t>SALARIO</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1125,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA377103-6400-4B45-9AF1-94A846B7056A}">
   <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAD5AD6-8F28-41A7-9DC2-5F87A0F0F4EC}">
   <dimension ref="C4:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,4 +1869,261 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82EAEF3-1135-46D1-A242-C0CBA5869F1B}">
+  <dimension ref="C5:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="12">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="12">
+        <f>18.9+9.9+176.98</f>
+        <v>205.77999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <f>255.54-25.55</f>
+        <v>229.98999999999998</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="4">
+        <f>H11+H12+H15+H16</f>
+        <v>570</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4">
+        <f>D21+D22+D23+D24+D25+D26</f>
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="15">
+        <f>50+112.44</f>
+        <v>162.44</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="7">
+        <f>D8+D9+D10+D11+D12+D13+D14</f>
+        <v>1868.43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E48922-43E4-460C-8844-5710D3FD1E6A}">
+  <dimension ref="B3:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3">
+        <v>3009.91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="12">
+        <v>142.19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4">
+        <f>F3-C13</f>
+        <v>1701.9099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="12">
+        <f>9.9+92.1+176.98+16.9</f>
+        <v>295.88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="7">
+        <f>C6+C7+C8+C9+C10+C11+C12</f>
+        <v>1308</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>